--- a/biology/Zoologie/Chat_marsupial_à_queue_tachetée/Chat_marsupial_à_queue_tachetée.xlsx
+++ b/biology/Zoologie/Chat_marsupial_à_queue_tachetée/Chat_marsupial_à_queue_tachetée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chat_marsupial_%C3%A0_queue_tachet%C3%A9e</t>
+          <t>Chat_marsupial_à_queue_tachetée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasyurus maculatus
 Le chat marsupial à queue tachetée (Dasyurus maculatus) encore appelé dasyure tigre est le plus gros marsupial carnivore de l'Australie.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chat_marsupial_%C3%A0_queue_tachet%C3%A9e</t>
+          <t>Chat_marsupial_à_queue_tachetée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dasyures tigres ont une fourrure épaisse qui peut aller du fauve clair au brun ou au noir, avec de petites taches blanches sur tout le corps, y compris, comme le montrent les photos, sur la queue touffue qui peut présenter aussi une tache blanche à l'extrémité. Ils mesurent entre 35 et 75 cm de long, sans compter une queue pouvant atteindre 50 cm. Les femelles sont plus petites et plus légères que les mâles. Elles pèsent environ 4 kg contre 7 kg pour les mâles.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chat_marsupial_%C3%A0_queue_tachet%C3%A9e</t>
+          <t>Chat_marsupial_à_queue_tachetée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur régime alimentaire comprend une grande variété de proies :
 oiseaux, rongeurs, autres petits marsupiaux, reptiles et insectes.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chat_marsupial_%C3%A0_queue_tachet%C3%A9e</t>
+          <t>Chat_marsupial_à_queue_tachetée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les femelles ont une portée par an avec de 4 à 6 petits. La gestation est de 21 jours puis les jeunes restent encore 7 semaines dans la poche marsupiale et deviennent indépendants au bout de 18 semaines. La maturité sexuelle est atteinte vers un an et la durée de vie est comprise entre 4 et 5 ans.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chat_marsupial_%C3%A0_queue_tachet%C3%A9e</t>
+          <t>Chat_marsupial_à_queue_tachetée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
